--- a/tracking/tpivot-next-steps.xlsx
+++ b/tracking/tpivot-next-steps.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tpivot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tpivot\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$14</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Stage</t>
   </si>
@@ -82,12 +85,6 @@
     <t>Refactor Jquery code to use module pattern, separating model operations from view operations in own name spaces to increase maintainability.</t>
   </si>
   <si>
-    <t>Model fns are lexically separate and each is a pure function. Will audit each fn to ensure compliance w/ model.</t>
-  </si>
-  <si>
-    <t>These sets of fns are already lexically separate. Not difficult to move into own modules.</t>
-  </si>
-  <si>
     <t>Add hook to change field list DOM on (drop in sorting bucket) and (remove from sorting bucket).</t>
   </si>
   <si>
@@ -97,21 +94,12 @@
     <t>Flexbox</t>
   </si>
   <si>
-    <t>Font Awesome is already a dependency and has nice animated spinners for this. Spinner will be created on request to server and destroyed on response from server.</t>
-  </si>
-  <si>
-    <t>Not started</t>
-  </si>
-  <si>
     <t>Parse</t>
   </si>
   <si>
     <t>Add ability to slice pivot on multiple columns</t>
   </si>
   <si>
-    <t>Multiple columns are doable but will need to figure out how to cleanly create a string with all column combos. See https://stackoverflow.com/questions/38696067/oracle-sql-pivot-on-multiple-columns-fields</t>
-  </si>
-  <si>
     <t>Add ability to use multiple aggregators</t>
   </si>
   <si>
@@ -154,10 +142,25 @@
     <t>Difficulty is for researching rules to ensure all cases are covered. Rules will be implemented as predicates for each sorting bucket with the signature `canDropHere(model, fieldAskingToDrop)` which will encode rules</t>
   </si>
   <si>
-    <t>Almost done -- need to do context menus</t>
-  </si>
-  <si>
-    <t>Done -- ended up w/ query results floating right</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Tabled</t>
+  </si>
+  <si>
+    <t>Will audit each model fn to ensure compliance w/ model.</t>
+  </si>
+  <si>
+    <t>Font Awesome is already a dependency and has nice animated spinners for this. Spinner will be created on request to server and destroyed on response from server (unless another request is in progress).</t>
+  </si>
+  <si>
+    <t>Multiple columns are doable but will need to figure out how to cleanly create a query string with all column combos. See https://stackoverflow.com/questions/38696067/oracle-sql-pivot-on-multiple-columns-fields</t>
+  </si>
+  <si>
+    <t>View/model operations are already lexically separate. Not difficult to move into own modules.</t>
   </si>
 </sst>
 </file>
@@ -678,25 +681,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -718,8 +723,11 @@
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -733,13 +741,13 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -753,16 +761,16 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -776,13 +784,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -796,18 +804,18 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -816,13 +824,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -836,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -856,13 +864,13 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -876,78 +884,78 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -956,18 +964,18 @@
         <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>15</v>
@@ -976,13 +984,20 @@
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H14">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Not started"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
